--- a/docs_manifest.xlsx
+++ b/docs_manifest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\Desktop\Monash\Data Analytics\A3\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\Desktop\Monash\Data Analytics\A3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{939BA924-58C0-48C0-AE04-882BCD944D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80A1A44-2050-4280-9D4A-722499E102A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{F1C62F8F-B323-4AEF-9E64-2201985BF24A}"/>
+    <workbookView xWindow="1731" yWindow="3780" windowWidth="28595" windowHeight="13106" xr2:uid="{F1C62F8F-B323-4AEF-9E64-2201985BF24A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="166">
   <si>
     <t>doc_id</t>
   </si>
@@ -179,18 +179,6 @@
     <t>https://www.foxsports.com.au/football/nations-league-final-2025-football-scores-portugal-beat-spain-in-penalty-shootout-cristiano-ronaldo-in-tears-amid-club-world-cup-transfer-rumours/news-story/c31961cf5a3a5de82c018fd9b6b147f3</t>
   </si>
   <si>
-    <t>Southern Highlands students develop technology to help detect PFAS in grocery items</t>
-  </si>
-  <si>
-    <t>Mikayla McGuirk-Scolaro</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>https://www.abc.net.au/news/2025-06-16/bowral-high-schoolers-detect-pfas/105382118</t>
-  </si>
-  <si>
     <t>Meta offered one AI researcher at least $10,000,000 to join up</t>
   </si>
   <si>
@@ -519,6 +507,33 @@
   </si>
   <si>
     <t>tech_06</t>
+  </si>
+  <si>
+    <t>politics_06</t>
+  </si>
+  <si>
+    <t>Trump Organization unveils $499 gold phone raising new concerns on conflicts of interest</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/us-news/2025/jun/16/trump-organization-gold-phone</t>
+  </si>
+  <si>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t>The Guardian</t>
+  </si>
+  <si>
+    <t>https://www.technewsworld.com/story/amds-ai-surge-challenges-nvidias-dominance-179781.html</t>
+  </si>
+  <si>
+    <t>Rob Enderle</t>
+  </si>
+  <si>
+    <t>technewsworld</t>
+  </si>
+  <si>
+    <t>AMD’s AI Surge Challenges Nvidia’s Dominance</t>
   </si>
 </sst>
 </file>
@@ -526,7 +541,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -596,10 +611,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -937,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B03049C-1BD3-4A87-9D50-B7B3261ED94F}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -987,16 +1002,16 @@
     </row>
     <row r="2" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E2" s="3">
         <v>1842</v>
@@ -1005,27 +1020,27 @@
         <v>44953</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E3" s="3">
         <v>1847</v>
@@ -1034,27 +1049,27 @@
         <v>45092</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E4" s="3">
         <v>1218</v>
@@ -1063,27 +1078,27 @@
         <v>45167</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E5" s="3">
         <v>1412</v>
@@ -1092,27 +1107,27 @@
         <v>45813</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34.299999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E6" s="1">
         <v>1027</v>
@@ -1121,25 +1136,25 @@
         <v>44413</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="22.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E7" s="3">
         <v>1857</v>
@@ -1148,27 +1163,27 @@
         <v>45739</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E8" s="3">
         <v>1686</v>
@@ -1177,27 +1192,27 @@
         <v>45130</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E9" s="3">
         <v>1116</v>
@@ -1206,27 +1221,27 @@
         <v>45755</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E10" s="3">
         <v>976</v>
@@ -1235,27 +1250,27 @@
         <v>45823</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E11" s="3">
         <v>1422</v>
@@ -1264,21 +1279,21 @@
         <v>45263</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
@@ -1302,16 +1317,16 @@
     </row>
     <row r="13" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3">
         <v>767</v>
@@ -1328,10 +1343,10 @@
     </row>
     <row r="14" spans="1:9" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>17</v>
@@ -1354,10 +1369,10 @@
     </row>
     <row r="15" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>21</v>
@@ -1380,10 +1395,10 @@
     </row>
     <row r="16" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>23</v>
@@ -1406,470 +1421,485 @@
     </row>
     <row r="17" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="E17" s="3">
-        <v>403</v>
-      </c>
-      <c r="F17" s="7">
-        <v>45821</v>
+        <v>777</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="1"/>
+        <v>161</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E18" s="3">
-        <v>467</v>
+        <v>403</v>
       </c>
       <c r="F18" s="7">
         <v>45821</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E19" s="3">
+        <v>467</v>
+      </c>
+      <c r="F19" s="7">
+        <v>45821</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="3">
         <v>482</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F20" s="7">
         <v>45790</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1120</v>
-      </c>
-      <c r="F20" s="7">
-        <v>45811</v>
-      </c>
       <c r="G20" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E21" s="3">
+        <v>1120</v>
+      </c>
+      <c r="F21" s="7">
+        <v>45811</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="3">
         <v>249</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F22" s="7">
         <v>45821</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="G22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="3">
         <v>671</v>
-      </c>
-      <c r="F22" s="7">
-        <v>45824</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="3">
-        <v>378</v>
       </c>
       <c r="F23" s="7">
         <v>45824</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="3">
+        <v>378</v>
+      </c>
+      <c r="F24" s="7">
+        <v>45824</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="3" t="s">
+    <row r="25" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25" s="3">
         <v>406</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F25" s="7">
         <v>45823</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:10" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="3">
+        <v>387</v>
+      </c>
+      <c r="F26" s="7">
+        <v>45820</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="3">
-        <v>387</v>
-      </c>
-      <c r="F25" s="7">
-        <v>45820</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="3" t="s">
+    </row>
+    <row r="27" spans="1:10" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E27" s="3">
         <v>609</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F27" s="7">
         <v>45817</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="3">
-        <v>849</v>
-      </c>
-      <c r="F27" s="7">
-        <v>45818</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="H27" s="3" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="E28" s="3">
-        <v>716</v>
+        <v>849</v>
       </c>
       <c r="F28" s="7">
-        <v>45824</v>
+        <v>45818</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="E29" s="3">
-        <v>1175</v>
+        <v>1321</v>
       </c>
       <c r="F29" s="7">
-        <v>45821</v>
+        <v>45824</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J29" s="1"/>
+        <v>164</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E30" s="3">
-        <v>1555</v>
+        <v>1175</v>
       </c>
       <c r="F30" s="7">
         <v>45821</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E31" s="3">
-        <v>772</v>
+        <v>1555</v>
       </c>
       <c r="F31" s="7">
-        <v>45824</v>
+        <v>45821</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I31" s="1"/>
+        <v>54</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E32" s="3">
-        <v>201</v>
+        <v>772</v>
       </c>
       <c r="F32" s="7">
-        <v>45823</v>
+        <v>45824</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E33" s="3">
+        <v>201</v>
+      </c>
+      <c r="F33" s="7">
+        <v>45823</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A34" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="3">
         <v>840</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F34" s="7">
         <v>45820</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="G34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
       <c r="F35" s="4"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1920,26 +1950,36 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="F40" s="6"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F41" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I33">
-    <sortCondition ref="B2:B33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I34">
+    <sortCondition ref="B2:B34"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D13" r:id="rId1" xr:uid="{B9B6B8BF-3AE8-4A3E-8C60-791E8F1DB488}"/>
     <hyperlink ref="D14" r:id="rId2" xr:uid="{EDA6EB9A-27A3-4F37-BF7B-5157E06D058E}"/>
     <hyperlink ref="D15" r:id="rId3" xr:uid="{2A8F2CE2-23D5-4058-B9FA-AE49CA632061}"/>
-    <hyperlink ref="D22" r:id="rId4" xr:uid="{49CF395E-86AC-41D6-B8B8-1976145059D1}"/>
-    <hyperlink ref="D24" r:id="rId5" xr:uid="{5C7C6F68-80FE-4514-945E-8AF27395A325}"/>
-    <hyperlink ref="D25" r:id="rId6" xr:uid="{E03D1963-7C95-401B-B42C-EEFA418022BA}"/>
-    <hyperlink ref="D26" r:id="rId7" xr:uid="{5C8817CB-A9C1-45A4-932A-EEC89EF85757}"/>
-    <hyperlink ref="D28" r:id="rId8" xr:uid="{D360B311-E7D8-4F7F-8D69-A15E9EBD0375}"/>
-    <hyperlink ref="D29" r:id="rId9" xr:uid="{C1FDB2C1-1B2E-413E-8C42-9F18EDA0D155}"/>
-    <hyperlink ref="D8" r:id="rId10" xr:uid="{48391F64-0DF8-4CC0-8A7B-A3638694CE9E}"/>
+    <hyperlink ref="D23" r:id="rId4" xr:uid="{49CF395E-86AC-41D6-B8B8-1976145059D1}"/>
+    <hyperlink ref="D25" r:id="rId5" xr:uid="{5C7C6F68-80FE-4514-945E-8AF27395A325}"/>
+    <hyperlink ref="D26" r:id="rId6" xr:uid="{E03D1963-7C95-401B-B42C-EEFA418022BA}"/>
+    <hyperlink ref="D27" r:id="rId7" xr:uid="{5C8817CB-A9C1-45A4-932A-EEC89EF85757}"/>
+    <hyperlink ref="D30" r:id="rId8" xr:uid="{C1FDB2C1-1B2E-413E-8C42-9F18EDA0D155}"/>
+    <hyperlink ref="D8" r:id="rId9" xr:uid="{48391F64-0DF8-4CC0-8A7B-A3638694CE9E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>